--- a/Design and Requirements/DesignGoals.xlsx
+++ b/Design and Requirements/DesignGoals.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\strange_matter\Design and Requirements\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6E7394AB-FAC2-43EB-885C-60419AA1D07C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4EEEFD-F953-415C-BB4C-F69D1E92B364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12825" yWindow="4965" windowWidth="28800" windowHeight="19395" xr2:uid="{8576D99C-1073-46BC-B442-5EF8B23D5365}"/>
+    <workbookView xWindow="6360" yWindow="1485" windowWidth="28800" windowHeight="19395" xr2:uid="{8576D99C-1073-46BC-B442-5EF8B23D5365}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Requirement</t>
   </si>
@@ -147,6 +147,12 @@
   </si>
   <si>
     <t>Bools not IFCBool</t>
+  </si>
+  <si>
+    <t>Simplify</t>
+  </si>
+  <si>
+    <t>Developer Experience</t>
   </si>
 </sst>
 </file>
@@ -507,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD3D793-AD33-4F42-B65E-A0B3609D9316}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,6 +690,16 @@
         <v>36</v>
       </c>
     </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
